--- a/downloaded_files/MTHS002_Tutorial-35745.xlsx
+++ b/downloaded_files/MTHS002_Tutorial-35745.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,60 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>1250001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد إبراهيم محمد الششتاوى السيد الشواديه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Ibrahim Mohamed elshishtawy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد اسامه امين عبد الرحمن شلبى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Osama Amin Abdelrahman Shalaby</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد السيد عبدالرحيم تركى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Elsayed Abdelrahim Ibraheem Tourky</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد تامر العراقى العزب العراقى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Tamer Eleraky Elazab Eleraky</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد حسام الدين محمد حسين طه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Hossam eldin mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد عادل عبدالسلام محمد الدمهوجى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Adel Abdelsalam Mohamed Aldamhogy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240207</x:t>
   </x:si>
   <x:si>
@@ -42,6 +96,159 @@
     <x:t>Ahmed Mostafa Ehsan Hassan Bakr</x:t>
   </x:si>
   <x:si>
+    <x:t>1250014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد هانى فكرى محمد عيد نجم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Hany Fekry Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>استيفن ابرام ميلاد توفيق عبد النور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Steven ebraam melad tawfik</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250151</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اسلام محمد زكري حسين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Islam Mohamed Zekry Hussein</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>انس محمد عبد العزيز محمد عبد الحميد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>anas mohammed abdul aziz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جنه احمد ابو الفتوح الهوارى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ganna Ahmed Abo El-fotouh El-Hawary</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جنى محمد جوده فهمى مصطفى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jana Mohamed Goda Fahmy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250215</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جومانه تامر محمد علي عزام</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jomana tamer mohamed ali azzam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250035</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حمزه طارق ابراهيم حسن عبد العزيز</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hamza Tarek Ibrahim Hassan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250044</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ريناد وليد محمد السيد احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reenad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250045</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد حسينى عواد حسينى عواد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zeyad hossiny</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250055</x:t>
+  </x:si>
+  <x:si>
+    <x:t>صموئيل حاتم فاروق وديع</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Samuel Hatem Farouk Wadie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250056</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ضالوشام جرجس لوندى جاد عبيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dalowsham Gerges Lawendy Gad Ebied</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250058</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الله محمد عبد الله محمد جاد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdallah Mohammed Abdallah Mohammed Gad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250059</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن احمد حسين عبدالقادر دسوقى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrhman ahmed hussein</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250062</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله محمد حسن هاشم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdallah Mohamed hassan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250069</x:t>
+  </x:si>
+  <x:si>
+    <x:t>علي محمد نبيل احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aly Mohamed Nabil</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250070</x:t>
+  </x:si>
+  <x:si>
+    <x:t>علي هاني علي إبراهيم البهدلي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Hani Ali Ibrahim l</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240106</x:t>
   </x:si>
   <x:si>
@@ -51,6 +258,123 @@
     <x:t>Omar Tarek</x:t>
   </x:si>
   <x:si>
+    <x:t>1250073</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر عبدالرحمن محمد رسلان حجازي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Abdelrahman Mohamed Raslan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250074</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر عمرو محمود حنفى محمود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>omar amr mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250075</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد طاهر صديق عشعش</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mohamed Taher Sadik Eshesh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250088</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ليلى احمد هلال عبدالحى شتا</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Laila Ahmed Helal Abd Alhay Sheta</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250089</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ماريا نصر ميخائيل ميخائيل تادرس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maria Nasr Mikhail Mikhail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250092</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد احمد اسماعيل احمد ابوالنجا</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed ahmed ismail ahmed abouelnaga</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250096</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد حسام الدين محمد محمودعمر احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed hossam ilden Mohamed  mahmoud omar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250098</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد علاء مبروك عبدالمقصود السمدونى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Alaa Mabrouk Abd Elmaksoud Elsamadony</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد هاني كمال محمد منير</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Hani Kamal Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250106</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود يسرى محمود محمد قسيط</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Yousry Mahmoud Mohamed Kosait</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250109</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم عادل وهبه ابراهيم سلامه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mariam adel wahba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نوراي احمد محمود ابو العلا بخيت</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BekhitNuray Ahmed Mahmoud Abuelella</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نورهان شريف رفاعى حسن رخا الاكوح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nourhan Sherif Refaei Hassan Rakha</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240387</x:t>
   </x:si>
   <x:si>
@@ -58,6 +382,42 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> Haytham Abdullah Amir El Gesh Mohamad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ياسين محمد وحيد الدين يحى عيد منسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yassin Mohamed wahid Eldin yehia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250134</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يسى جورجيوس يوسف عزيز ميخائيل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yassa gourgious yousef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250136</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف ايمن احمد إسماعيل يوسف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef ayman Ahmed ismail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف كميل كمال زاخر حكيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Kamil Kamal Zakher</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -173,7 +533,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E4" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -473,7 +833,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T4"/>
+  <x:dimension ref="A1:T44"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -481,9 +841,9 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="23.780625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="38.660625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="33.280625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="47.440625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -564,7 +924,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45909.5802270023</x:v>
+        <x:v>45920.981556331</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -596,7 +956,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45908.4175178241</x:v>
+        <x:v>45920.981556331</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -628,7 +988,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45909.5908545949</x:v>
+        <x:v>45920.981556331</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -646,6 +1006,1286 @@
       <x:c r="S4" s="2" t="s"/>
       <x:c r="T4" s="2" t="s"/>
     </x:row>
+    <x:row r="5" spans="1:20">
+      <x:c r="A5" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E5" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s"/>
+      <x:c r="G5" s="2" t="s"/>
+      <x:c r="H5" s="2" t="s"/>
+      <x:c r="I5" s="2" t="s"/>
+      <x:c r="J5" s="2" t="s"/>
+      <x:c r="K5" s="2" t="s"/>
+      <x:c r="L5" s="2" t="s"/>
+      <x:c r="M5" s="2" t="s"/>
+      <x:c r="N5" s="2" t="s"/>
+      <x:c r="O5" s="2" t="s"/>
+      <x:c r="P5" s="2" t="s"/>
+      <x:c r="Q5" s="2" t="s"/>
+      <x:c r="R5" s="2" t="s"/>
+      <x:c r="S5" s="2" t="s"/>
+      <x:c r="T5" s="2" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:20">
+      <x:c r="A6" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E6" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="s"/>
+      <x:c r="G6" s="2" t="s"/>
+      <x:c r="H6" s="2" t="s"/>
+      <x:c r="I6" s="2" t="s"/>
+      <x:c r="J6" s="2" t="s"/>
+      <x:c r="K6" s="2" t="s"/>
+      <x:c r="L6" s="2" t="s"/>
+      <x:c r="M6" s="2" t="s"/>
+      <x:c r="N6" s="2" t="s"/>
+      <x:c r="O6" s="2" t="s"/>
+      <x:c r="P6" s="2" t="s"/>
+      <x:c r="Q6" s="2" t="s"/>
+      <x:c r="R6" s="2" t="s"/>
+      <x:c r="S6" s="2" t="s"/>
+      <x:c r="T6" s="2" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:20">
+      <x:c r="A7" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E7" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F7" s="2" t="s"/>
+      <x:c r="G7" s="2" t="s"/>
+      <x:c r="H7" s="2" t="s"/>
+      <x:c r="I7" s="2" t="s"/>
+      <x:c r="J7" s="2" t="s"/>
+      <x:c r="K7" s="2" t="s"/>
+      <x:c r="L7" s="2" t="s"/>
+      <x:c r="M7" s="2" t="s"/>
+      <x:c r="N7" s="2" t="s"/>
+      <x:c r="O7" s="2" t="s"/>
+      <x:c r="P7" s="2" t="s"/>
+      <x:c r="Q7" s="2" t="s"/>
+      <x:c r="R7" s="2" t="s"/>
+      <x:c r="S7" s="2" t="s"/>
+      <x:c r="T7" s="2" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:20">
+      <x:c r="A8" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E8" s="3">
+        <x:v>45909.5802270023</x:v>
+      </x:c>
+      <x:c r="F8" s="2" t="s"/>
+      <x:c r="G8" s="2" t="s"/>
+      <x:c r="H8" s="2" t="s"/>
+      <x:c r="I8" s="2" t="s"/>
+      <x:c r="J8" s="2" t="s"/>
+      <x:c r="K8" s="2" t="s"/>
+      <x:c r="L8" s="2" t="s"/>
+      <x:c r="M8" s="2" t="s"/>
+      <x:c r="N8" s="2" t="s"/>
+      <x:c r="O8" s="2" t="s"/>
+      <x:c r="P8" s="2" t="s"/>
+      <x:c r="Q8" s="2" t="s"/>
+      <x:c r="R8" s="2" t="s"/>
+      <x:c r="S8" s="2" t="s"/>
+      <x:c r="T8" s="2" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:20">
+      <x:c r="A9" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E9" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F9" s="2" t="s"/>
+      <x:c r="G9" s="2" t="s"/>
+      <x:c r="H9" s="2" t="s"/>
+      <x:c r="I9" s="2" t="s"/>
+      <x:c r="J9" s="2" t="s"/>
+      <x:c r="K9" s="2" t="s"/>
+      <x:c r="L9" s="2" t="s"/>
+      <x:c r="M9" s="2" t="s"/>
+      <x:c r="N9" s="2" t="s"/>
+      <x:c r="O9" s="2" t="s"/>
+      <x:c r="P9" s="2" t="s"/>
+      <x:c r="Q9" s="2" t="s"/>
+      <x:c r="R9" s="2" t="s"/>
+      <x:c r="S9" s="2" t="s"/>
+      <x:c r="T9" s="2" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:20">
+      <x:c r="A10" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E10" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F10" s="2" t="s"/>
+      <x:c r="G10" s="2" t="s"/>
+      <x:c r="H10" s="2" t="s"/>
+      <x:c r="I10" s="2" t="s"/>
+      <x:c r="J10" s="2" t="s"/>
+      <x:c r="K10" s="2" t="s"/>
+      <x:c r="L10" s="2" t="s"/>
+      <x:c r="M10" s="2" t="s"/>
+      <x:c r="N10" s="2" t="s"/>
+      <x:c r="O10" s="2" t="s"/>
+      <x:c r="P10" s="2" t="s"/>
+      <x:c r="Q10" s="2" t="s"/>
+      <x:c r="R10" s="2" t="s"/>
+      <x:c r="S10" s="2" t="s"/>
+      <x:c r="T10" s="2" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:20">
+      <x:c r="A11" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E11" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F11" s="2" t="s"/>
+      <x:c r="G11" s="2" t="s"/>
+      <x:c r="H11" s="2" t="s"/>
+      <x:c r="I11" s="2" t="s"/>
+      <x:c r="J11" s="2" t="s"/>
+      <x:c r="K11" s="2" t="s"/>
+      <x:c r="L11" s="2" t="s"/>
+      <x:c r="M11" s="2" t="s"/>
+      <x:c r="N11" s="2" t="s"/>
+      <x:c r="O11" s="2" t="s"/>
+      <x:c r="P11" s="2" t="s"/>
+      <x:c r="Q11" s="2" t="s"/>
+      <x:c r="R11" s="2" t="s"/>
+      <x:c r="S11" s="2" t="s"/>
+      <x:c r="T11" s="2" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:20">
+      <x:c r="A12" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E12" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F12" s="2" t="s"/>
+      <x:c r="G12" s="2" t="s"/>
+      <x:c r="H12" s="2" t="s"/>
+      <x:c r="I12" s="2" t="s"/>
+      <x:c r="J12" s="2" t="s"/>
+      <x:c r="K12" s="2" t="s"/>
+      <x:c r="L12" s="2" t="s"/>
+      <x:c r="M12" s="2" t="s"/>
+      <x:c r="N12" s="2" t="s"/>
+      <x:c r="O12" s="2" t="s"/>
+      <x:c r="P12" s="2" t="s"/>
+      <x:c r="Q12" s="2" t="s"/>
+      <x:c r="R12" s="2" t="s"/>
+      <x:c r="S12" s="2" t="s"/>
+      <x:c r="T12" s="2" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:20">
+      <x:c r="A13" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E13" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s"/>
+      <x:c r="G13" s="2" t="s"/>
+      <x:c r="H13" s="2" t="s"/>
+      <x:c r="I13" s="2" t="s"/>
+      <x:c r="J13" s="2" t="s"/>
+      <x:c r="K13" s="2" t="s"/>
+      <x:c r="L13" s="2" t="s"/>
+      <x:c r="M13" s="2" t="s"/>
+      <x:c r="N13" s="2" t="s"/>
+      <x:c r="O13" s="2" t="s"/>
+      <x:c r="P13" s="2" t="s"/>
+      <x:c r="Q13" s="2" t="s"/>
+      <x:c r="R13" s="2" t="s"/>
+      <x:c r="S13" s="2" t="s"/>
+      <x:c r="T13" s="2" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:20">
+      <x:c r="A14" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E14" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F14" s="2" t="s"/>
+      <x:c r="G14" s="2" t="s"/>
+      <x:c r="H14" s="2" t="s"/>
+      <x:c r="I14" s="2" t="s"/>
+      <x:c r="J14" s="2" t="s"/>
+      <x:c r="K14" s="2" t="s"/>
+      <x:c r="L14" s="2" t="s"/>
+      <x:c r="M14" s="2" t="s"/>
+      <x:c r="N14" s="2" t="s"/>
+      <x:c r="O14" s="2" t="s"/>
+      <x:c r="P14" s="2" t="s"/>
+      <x:c r="Q14" s="2" t="s"/>
+      <x:c r="R14" s="2" t="s"/>
+      <x:c r="S14" s="2" t="s"/>
+      <x:c r="T14" s="2" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:20">
+      <x:c r="A15" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E15" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s"/>
+      <x:c r="G15" s="2" t="s"/>
+      <x:c r="H15" s="2" t="s"/>
+      <x:c r="I15" s="2" t="s"/>
+      <x:c r="J15" s="2" t="s"/>
+      <x:c r="K15" s="2" t="s"/>
+      <x:c r="L15" s="2" t="s"/>
+      <x:c r="M15" s="2" t="s"/>
+      <x:c r="N15" s="2" t="s"/>
+      <x:c r="O15" s="2" t="s"/>
+      <x:c r="P15" s="2" t="s"/>
+      <x:c r="Q15" s="2" t="s"/>
+      <x:c r="R15" s="2" t="s"/>
+      <x:c r="S15" s="2" t="s"/>
+      <x:c r="T15" s="2" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20">
+      <x:c r="A16" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E16" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s"/>
+      <x:c r="G16" s="2" t="s"/>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s"/>
+      <x:c r="J16" s="2" t="s"/>
+      <x:c r="K16" s="2" t="s"/>
+      <x:c r="L16" s="2" t="s"/>
+      <x:c r="M16" s="2" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
+      <x:c r="P16" s="2" t="s"/>
+      <x:c r="Q16" s="2" t="s"/>
+      <x:c r="R16" s="2" t="s"/>
+      <x:c r="S16" s="2" t="s"/>
+      <x:c r="T16" s="2" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:20">
+      <x:c r="A17" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E17" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s"/>
+      <x:c r="G17" s="2" t="s"/>
+      <x:c r="H17" s="2" t="s"/>
+      <x:c r="I17" s="2" t="s"/>
+      <x:c r="J17" s="2" t="s"/>
+      <x:c r="K17" s="2" t="s"/>
+      <x:c r="L17" s="2" t="s"/>
+      <x:c r="M17" s="2" t="s"/>
+      <x:c r="N17" s="2" t="s"/>
+      <x:c r="O17" s="2" t="s"/>
+      <x:c r="P17" s="2" t="s"/>
+      <x:c r="Q17" s="2" t="s"/>
+      <x:c r="R17" s="2" t="s"/>
+      <x:c r="S17" s="2" t="s"/>
+      <x:c r="T17" s="2" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:20">
+      <x:c r="A18" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E18" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F18" s="2" t="s"/>
+      <x:c r="G18" s="2" t="s"/>
+      <x:c r="H18" s="2" t="s"/>
+      <x:c r="I18" s="2" t="s"/>
+      <x:c r="J18" s="2" t="s"/>
+      <x:c r="K18" s="2" t="s"/>
+      <x:c r="L18" s="2" t="s"/>
+      <x:c r="M18" s="2" t="s"/>
+      <x:c r="N18" s="2" t="s"/>
+      <x:c r="O18" s="2" t="s"/>
+      <x:c r="P18" s="2" t="s"/>
+      <x:c r="Q18" s="2" t="s"/>
+      <x:c r="R18" s="2" t="s"/>
+      <x:c r="S18" s="2" t="s"/>
+      <x:c r="T18" s="2" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:20">
+      <x:c r="A19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E19" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s"/>
+      <x:c r="G19" s="2" t="s"/>
+      <x:c r="H19" s="2" t="s"/>
+      <x:c r="I19" s="2" t="s"/>
+      <x:c r="J19" s="2" t="s"/>
+      <x:c r="K19" s="2" t="s"/>
+      <x:c r="L19" s="2" t="s"/>
+      <x:c r="M19" s="2" t="s"/>
+      <x:c r="N19" s="2" t="s"/>
+      <x:c r="O19" s="2" t="s"/>
+      <x:c r="P19" s="2" t="s"/>
+      <x:c r="Q19" s="2" t="s"/>
+      <x:c r="R19" s="2" t="s"/>
+      <x:c r="S19" s="2" t="s"/>
+      <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45908.4175178241</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:20">
+      <x:c r="A40" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="E40" s="3">
+        <x:v>45909.5908545949</x:v>
+      </x:c>
+      <x:c r="F40" s="2" t="s"/>
+      <x:c r="G40" s="2" t="s"/>
+      <x:c r="H40" s="2" t="s"/>
+      <x:c r="I40" s="2" t="s"/>
+      <x:c r="J40" s="2" t="s"/>
+      <x:c r="K40" s="2" t="s"/>
+      <x:c r="L40" s="2" t="s"/>
+      <x:c r="M40" s="2" t="s"/>
+      <x:c r="N40" s="2" t="s"/>
+      <x:c r="O40" s="2" t="s"/>
+      <x:c r="P40" s="2" t="s"/>
+      <x:c r="Q40" s="2" t="s"/>
+      <x:c r="R40" s="2" t="s"/>
+      <x:c r="S40" s="2" t="s"/>
+      <x:c r="T40" s="2" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="E41" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s"/>
+      <x:c r="G41" s="2" t="s"/>
+      <x:c r="H41" s="2" t="s"/>
+      <x:c r="I41" s="2" t="s"/>
+      <x:c r="J41" s="2" t="s"/>
+      <x:c r="K41" s="2" t="s"/>
+      <x:c r="L41" s="2" t="s"/>
+      <x:c r="M41" s="2" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
+      <x:c r="P41" s="2" t="s"/>
+      <x:c r="Q41" s="2" t="s"/>
+      <x:c r="R41" s="2" t="s"/>
+      <x:c r="S41" s="2" t="s"/>
+      <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="E43" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -658,6 +2298,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Calculus I (MTHS002) Location : [51216]51216-الشيخ زايد Time : Wednesday(12:15)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/MTHS002_Tutorial-35745.xlsx
+++ b/downloaded_files/MTHS002_Tutorial-35745.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -283,6 +283,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Mohamed Taher Sadik Eshesh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمرو احمد السيد محمد السيد صالح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>amr ahmed elsayed mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1250088</x:t>
@@ -533,7 +542,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -833,7 +842,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T45"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1820,7 +1829,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45920.981556331</x:v>
+        <x:v>45921.9014203704</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -2140,7 +2149,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45909.5908545949</x:v>
+        <x:v>45920.981556331</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2172,7 +2181,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45920.981556331</x:v>
+        <x:v>45909.5908545949</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2285,6 +2294,38 @@
       <x:c r="R44" s="2" t="s"/>
       <x:c r="S44" s="2" t="s"/>
       <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E45" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS002_Tutorial-35745.xlsx
+++ b/downloaded_files/MTHS002_Tutorial-35745.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -105,6 +105,15 @@
     <x:t>Ahmed Hany Fekry Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1250267</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ادم محمد السيد عبدالرحمن الجوهري</x:t>
+  </x:si>
+  <x:si>
+    <x:t>adam mohamed el sayed abdelrahman elgohary</x:t>
+  </x:si>
+  <x:si>
     <x:t>1250018</x:t>
   </x:si>
   <x:si>
@@ -150,6 +159,15 @@
     <x:t>Jana Mohamed Goda Fahmy</x:t>
   </x:si>
   <x:si>
+    <x:t>1250277</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جولى عماد ماهر عزمى اسرائيل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jolie Emad Maher Azmy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1250215</x:t>
   </x:si>
   <x:si>
@@ -213,6 +231,15 @@
     <x:t>Abdallah Mohammed Abdallah Mohammed Gad</x:t>
   </x:si>
   <x:si>
+    <x:t>1250449</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الله نزار عبد العزيز سيد شهاب الدين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdullah Nezar Abdulazeez Sayyed Shehabuddeen</x:t>
+  </x:si>
+  <x:si>
     <x:t>1250059</x:t>
   </x:si>
   <x:si>
@@ -247,6 +274,15 @@
   </x:si>
   <x:si>
     <x:t>Ali Hani Ali Ibrahim l</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1250416</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمار محمد أبو العينين محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AMAR MOHAMED</x:t>
   </x:si>
   <x:si>
     <x:t>1240106</x:t>
@@ -542,7 +578,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -842,7 +878,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T45"/>
+  <x:dimension ref="A1:T49"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1189,7 +1225,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45920.981556331</x:v>
+        <x:v>45926.6353734143</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1381,7 +1417,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45920.981556331</x:v>
+        <x:v>45926.6353734143</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1637,7 +1673,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45920.981556331</x:v>
+        <x:v>45926.6353734143</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1701,7 +1737,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4175178241</x:v>
+        <x:v>45920.981556331</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1797,7 +1833,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45920.981556331</x:v>
+        <x:v>45926.6353734143</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1829,7 +1865,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45921.9014203704</x:v>
+        <x:v>45908.4175178241</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1957,7 +1993,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45920.981556331</x:v>
+        <x:v>45921.9014203704</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2181,7 +2217,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45909.5908545949</x:v>
+        <x:v>45920.981556331</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2309,7 +2345,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45920.981556331</x:v>
+        <x:v>45909.5908545949</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2326,6 +2362,134 @@
       <x:c r="R45" s="2" t="s"/>
       <x:c r="S45" s="2" t="s"/>
       <x:c r="T45" s="2" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:20">
+      <x:c r="A46" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="E46" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="2" t="s"/>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20">
+      <x:c r="A47" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="E47" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="2" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="2" t="s"/>
+      <x:c r="Q47" s="2" t="s"/>
+      <x:c r="R47" s="2" t="s"/>
+      <x:c r="S47" s="2" t="s"/>
+      <x:c r="T47" s="2" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20">
+      <x:c r="A48" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D48" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="E48" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F48" s="2" t="s"/>
+      <x:c r="G48" s="2" t="s"/>
+      <x:c r="H48" s="2" t="s"/>
+      <x:c r="I48" s="2" t="s"/>
+      <x:c r="J48" s="2" t="s"/>
+      <x:c r="K48" s="2" t="s"/>
+      <x:c r="L48" s="2" t="s"/>
+      <x:c r="M48" s="2" t="s"/>
+      <x:c r="N48" s="2" t="s"/>
+      <x:c r="O48" s="2" t="s"/>
+      <x:c r="P48" s="2" t="s"/>
+      <x:c r="Q48" s="2" t="s"/>
+      <x:c r="R48" s="2" t="s"/>
+      <x:c r="S48" s="2" t="s"/>
+      <x:c r="T48" s="2" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20">
+      <x:c r="A49" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="D49" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="E49" s="3">
+        <x:v>45920.981556331</x:v>
+      </x:c>
+      <x:c r="F49" s="2" t="s"/>
+      <x:c r="G49" s="2" t="s"/>
+      <x:c r="H49" s="2" t="s"/>
+      <x:c r="I49" s="2" t="s"/>
+      <x:c r="J49" s="2" t="s"/>
+      <x:c r="K49" s="2" t="s"/>
+      <x:c r="L49" s="2" t="s"/>
+      <x:c r="M49" s="2" t="s"/>
+      <x:c r="N49" s="2" t="s"/>
+      <x:c r="O49" s="2" t="s"/>
+      <x:c r="P49" s="2" t="s"/>
+      <x:c r="Q49" s="2" t="s"/>
+      <x:c r="R49" s="2" t="s"/>
+      <x:c r="S49" s="2" t="s"/>
+      <x:c r="T49" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS002_Tutorial-35745.xlsx
+++ b/downloaded_files/MTHS002_Tutorial-35745.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -337,15 +337,6 @@
   </x:si>
   <x:si>
     <x:t>Laila Ahmed Helal Abd Alhay Sheta</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1250089</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ماريا نصر ميخائيل ميخائيل تادرس</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maria Nasr Mikhail Mikhail</x:t>
   </x:si>
   <x:si>
     <x:t>1250092</x:t>
@@ -578,7 +569,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -878,7 +869,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T49"/>
+  <x:dimension ref="A1:T48"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2313,7 +2304,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45920.981556331</x:v>
+        <x:v>45909.5908545949</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2345,7 +2336,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45909.5908545949</x:v>
+        <x:v>45920.981556331</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2458,38 +2449,6 @@
       <x:c r="R48" s="2" t="s"/>
       <x:c r="S48" s="2" t="s"/>
       <x:c r="T48" s="2" t="s"/>
-    </x:row>
-    <x:row r="49" spans="1:20">
-      <x:c r="A49" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B49" s="2" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="C49" s="2" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="D49" s="2" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="E49" s="3">
-        <x:v>45920.981556331</x:v>
-      </x:c>
-      <x:c r="F49" s="2" t="s"/>
-      <x:c r="G49" s="2" t="s"/>
-      <x:c r="H49" s="2" t="s"/>
-      <x:c r="I49" s="2" t="s"/>
-      <x:c r="J49" s="2" t="s"/>
-      <x:c r="K49" s="2" t="s"/>
-      <x:c r="L49" s="2" t="s"/>
-      <x:c r="M49" s="2" t="s"/>
-      <x:c r="N49" s="2" t="s"/>
-      <x:c r="O49" s="2" t="s"/>
-      <x:c r="P49" s="2" t="s"/>
-      <x:c r="Q49" s="2" t="s"/>
-      <x:c r="R49" s="2" t="s"/>
-      <x:c r="S49" s="2" t="s"/>
-      <x:c r="T49" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS002_Tutorial-35745.xlsx
+++ b/downloaded_files/MTHS002_Tutorial-35745.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -121,15 +121,6 @@
   </x:si>
   <x:si>
     <x:t>Steven ebraam melad tawfik</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1250151</x:t>
-  </x:si>
-  <x:si>
-    <x:t>اسلام محمد زكري حسين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Islam Mohamed Zekry Hussein</x:t>
   </x:si>
   <x:si>
     <x:t>1250020</x:t>
@@ -569,7 +560,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -869,7 +860,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T48"/>
+  <x:dimension ref="A1:T47"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1376,7 +1367,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45920.981556331</x:v>
+        <x:v>45926.6353734143</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1408,7 +1399,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45926.6353734143</x:v>
+        <x:v>45920.981556331</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1632,7 +1623,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45920.981556331</x:v>
+        <x:v>45926.6353734143</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1664,7 +1655,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45926.6353734143</x:v>
+        <x:v>45920.981556331</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1792,7 +1783,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45920.981556331</x:v>
+        <x:v>45926.6353734143</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1824,7 +1815,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45926.6353734143</x:v>
+        <x:v>45908.4175178241</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1856,7 +1847,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4175178241</x:v>
+        <x:v>45920.981556331</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1952,7 +1943,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45920.981556331</x:v>
+        <x:v>45921.9014203704</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1984,7 +1975,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45921.9014203704</x:v>
+        <x:v>45920.981556331</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2272,7 +2263,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45920.981556331</x:v>
+        <x:v>45909.5908545949</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2304,7 +2295,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45909.5908545949</x:v>
+        <x:v>45920.981556331</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2417,38 +2408,6 @@
       <x:c r="R47" s="2" t="s"/>
       <x:c r="S47" s="2" t="s"/>
       <x:c r="T47" s="2" t="s"/>
-    </x:row>
-    <x:row r="48" spans="1:20">
-      <x:c r="A48" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B48" s="2" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="C48" s="2" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="D48" s="2" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="E48" s="3">
-        <x:v>45920.981556331</x:v>
-      </x:c>
-      <x:c r="F48" s="2" t="s"/>
-      <x:c r="G48" s="2" t="s"/>
-      <x:c r="H48" s="2" t="s"/>
-      <x:c r="I48" s="2" t="s"/>
-      <x:c r="J48" s="2" t="s"/>
-      <x:c r="K48" s="2" t="s"/>
-      <x:c r="L48" s="2" t="s"/>
-      <x:c r="M48" s="2" t="s"/>
-      <x:c r="N48" s="2" t="s"/>
-      <x:c r="O48" s="2" t="s"/>
-      <x:c r="P48" s="2" t="s"/>
-      <x:c r="Q48" s="2" t="s"/>
-      <x:c r="R48" s="2" t="s"/>
-      <x:c r="S48" s="2" t="s"/>
-      <x:c r="T48" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
